--- a/statistics/HistoricalDistanceData/historical_distance/Q20685047-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q20685047-en.xlsx
@@ -31,15 +31,15 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Johannes Hahn on Twitter</t>
+  </si>
+  <si>
+    <t>Suruç attack: Turkey to tighten security along border with Syria</t>
+  </si>
+  <si>
     <t>Philip Hammond on Twitter</t>
   </si>
   <si>
-    <t>Suruç attack: Turkey to tighten security along border with Syria</t>
-  </si>
-  <si>
-    <t>Johannes Hahn on Twitter</t>
-  </si>
-  <si>
     <t>Turkey: Dozens dead in blast at Suruc, near Syrian border</t>
   </si>
   <si>
@@ -79,13 +79,13 @@
     <t>day_1</t>
   </si>
   <si>
+    <t>https://twitter.com/JHahnEU/status/623094338147495937</t>
+  </si>
+  <si>
+    <t>http://www.euronews.com/2015/07/21/suruc-attack-turkey-to-tighten-security-along-border-with-syria</t>
+  </si>
+  <si>
     <t>https://twitter.com/PHammondMP/status/623149391734566913</t>
-  </si>
-  <si>
-    <t>http://www.euronews.com/2015/07/21/suruc-attack-turkey-to-tighten-security-along-border-with-syria</t>
-  </si>
-  <si>
-    <t>https://twitter.com/JHahnEU/status/623094338147495937</t>
   </si>
   <si>
     <t>http://descrier.co.uk/news/world/middle-east/turkey-at-least-10-dead-in-blast-at-suruc-near-syrian-border</t>
